--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H2">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I2">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J2">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N2">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O2">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P2">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q2">
-        <v>841.5858944025599</v>
+        <v>795.94901273082</v>
       </c>
       <c r="R2">
-        <v>7574.27304962304</v>
+        <v>7163.541114577381</v>
       </c>
       <c r="S2">
-        <v>0.680274892249188</v>
+        <v>0.5380305309679539</v>
       </c>
       <c r="T2">
-        <v>0.680274892249188</v>
+        <v>0.5380305309679541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H3">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I3">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J3">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P3">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q3">
-        <v>71.64039010389332</v>
+        <v>64.17203156716799</v>
       </c>
       <c r="R3">
-        <v>644.7635109350399</v>
+        <v>577.5482841045119</v>
       </c>
       <c r="S3">
-        <v>0.0579087161307674</v>
+        <v>0.04337779388521226</v>
       </c>
       <c r="T3">
-        <v>0.0579087161307674</v>
+        <v>0.04337779388521226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H4">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I4">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J4">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N4">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q4">
-        <v>14.05767478202666</v>
+        <v>20.201023872402</v>
       </c>
       <c r="R4">
-        <v>126.51907303824</v>
+        <v>181.809214851618</v>
       </c>
       <c r="S4">
-        <v>0.01136316953649292</v>
+        <v>0.01365510532248181</v>
       </c>
       <c r="T4">
-        <v>0.01136316953649292</v>
+        <v>0.01365510532248181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H5">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I5">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J5">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N5">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O5">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P5">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q5">
-        <v>5.716584633359998</v>
+        <v>3.520589841497999</v>
       </c>
       <c r="R5">
-        <v>51.44926170023999</v>
+        <v>31.685308573482</v>
       </c>
       <c r="S5">
-        <v>0.00462085809821352</v>
+        <v>0.002379781608425894</v>
       </c>
       <c r="T5">
-        <v>0.00462085809821352</v>
+        <v>0.002379781608425895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H6">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I6">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J6">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N6">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q6">
-        <v>14.3029934548</v>
+        <v>34.90542517304399</v>
       </c>
       <c r="R6">
-        <v>128.7269410932</v>
+        <v>314.148826557396</v>
       </c>
       <c r="S6">
-        <v>0.01156146674512908</v>
+        <v>0.02359470787592556</v>
       </c>
       <c r="T6">
-        <v>0.01156146674512908</v>
+        <v>0.02359470787592556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H7">
         <v>2.219224</v>
       </c>
       <c r="I7">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J7">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N7">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O7">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P7">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q7">
-        <v>34.955725129472</v>
+        <v>36.90772447705778</v>
       </c>
       <c r="R7">
-        <v>314.601526165248</v>
+        <v>332.16952029352</v>
       </c>
       <c r="S7">
-        <v>0.02825558544184586</v>
+        <v>0.02494818421732988</v>
       </c>
       <c r="T7">
-        <v>0.02825558544184586</v>
+        <v>0.02494818421732989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H8">
         <v>2.219224</v>
       </c>
       <c r="I8">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J8">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P8">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q8">
         <v>2.975622335516444</v>
       </c>
       <c r="R8">
-        <v>26.780601019648</v>
+        <v>26.78060101964799</v>
       </c>
       <c r="S8">
-        <v>0.002405269832979711</v>
+        <v>0.002011404800472371</v>
       </c>
       <c r="T8">
-        <v>0.002405269832979711</v>
+        <v>0.002011404800472371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H9">
         <v>2.219224</v>
       </c>
       <c r="I9">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J9">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N9">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q9">
-        <v>0.5838931223875555</v>
+        <v>0.9367105320968889</v>
       </c>
       <c r="R9">
-        <v>5.255038101488</v>
+        <v>8.430394788872</v>
       </c>
       <c r="S9">
-        <v>0.0004719753902234939</v>
+        <v>0.0006331798355000952</v>
       </c>
       <c r="T9">
-        <v>0.0004719753902234938</v>
+        <v>0.0006331798355000953</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H10">
         <v>2.219224</v>
       </c>
       <c r="I10">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J10">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N10">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O10">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P10">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q10">
-        <v>0.237441433432</v>
+        <v>0.1632478435031111</v>
       </c>
       <c r="R10">
-        <v>2.136972900888</v>
+        <v>1.469230591528</v>
       </c>
       <c r="S10">
-        <v>0.0001919298393874735</v>
+        <v>0.0001103491838227282</v>
       </c>
       <c r="T10">
-        <v>0.0001919298393874735</v>
+        <v>0.0001103491838227282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H11">
         <v>2.219224</v>
       </c>
       <c r="I11">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J11">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N11">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q11">
-        <v>0.5940825660933333</v>
+        <v>1.618545653598222</v>
       </c>
       <c r="R11">
-        <v>5.346743094840001</v>
+        <v>14.566910882384</v>
       </c>
       <c r="S11">
-        <v>0.0004802117719940651</v>
+        <v>0.001094073820650404</v>
       </c>
       <c r="T11">
-        <v>0.0004802117719940651</v>
+        <v>0.001094073820650404</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H12">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I12">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J12">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N12">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O12">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P12">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q12">
-        <v>48.779878148672</v>
+        <v>279.7663237938834</v>
       </c>
       <c r="R12">
-        <v>439.018903338048</v>
+        <v>2517.896914144951</v>
       </c>
       <c r="S12">
-        <v>0.039429993506573</v>
+        <v>0.1891111381887982</v>
       </c>
       <c r="T12">
-        <v>0.039429993506573</v>
+        <v>0.1891111381887982</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H13">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I13">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J13">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.067552</v>
       </c>
       <c r="O13">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P13">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q13">
-        <v>4.152409781383111</v>
+        <v>22.55568268165334</v>
       </c>
       <c r="R13">
-        <v>37.37168803244799</v>
+        <v>203.00114413488</v>
       </c>
       <c r="S13">
-        <v>0.003356496509022618</v>
+        <v>0.01524676296527898</v>
       </c>
       <c r="T13">
-        <v>0.003356496509022618</v>
+        <v>0.01524676296527897</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H14">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I14">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J14">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N14">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q14">
-        <v>0.8148088834208889</v>
+        <v>7.100412332021668</v>
       </c>
       <c r="R14">
-        <v>7.333279950787999</v>
+        <v>63.90371098819502</v>
       </c>
       <c r="S14">
-        <v>0.0006586303656697082</v>
+        <v>0.004799602180524325</v>
       </c>
       <c r="T14">
-        <v>0.0006586303656697079</v>
+        <v>0.004799602180524325</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H15">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I15">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J15">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N15">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O15">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P15">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q15">
-        <v>0.3313438398819999</v>
+        <v>1.237444185228334</v>
       </c>
       <c r="R15">
-        <v>2.982094558937999</v>
+        <v>11.136997667055</v>
       </c>
       <c r="S15">
-        <v>0.0002678334991975765</v>
+        <v>0.0008364640716587796</v>
       </c>
       <c r="T15">
-        <v>0.0002678334991975764</v>
+        <v>0.0008364640716587796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H16">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I16">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J16">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N16">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q16">
-        <v>0.8290280083433332</v>
+        <v>12.26882918997667</v>
       </c>
       <c r="R16">
-        <v>7.46125207509</v>
+        <v>110.41946270979</v>
       </c>
       <c r="S16">
-        <v>0.0006701240393859963</v>
+        <v>0.008293250670405263</v>
       </c>
       <c r="T16">
-        <v>0.0006701240393859962</v>
+        <v>0.008293250670405263</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H17">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I17">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J17">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N17">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O17">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P17">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q17">
-        <v>71.46601182457599</v>
+        <v>72.49520381094334</v>
       </c>
       <c r="R17">
-        <v>643.194106421184</v>
+        <v>652.4568342984901</v>
       </c>
       <c r="S17">
-        <v>0.0577677618134931</v>
+        <v>0.04900393414046832</v>
       </c>
       <c r="T17">
-        <v>0.05776776181349309</v>
+        <v>0.04900393414046833</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H18">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I18">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J18">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.067552</v>
       </c>
       <c r="O18">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P18">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q18">
-        <v>6.083577446264887</v>
+        <v>5.844802158197332</v>
       </c>
       <c r="R18">
-        <v>54.75219701638399</v>
+        <v>52.603219423776</v>
       </c>
       <c r="S18">
-        <v>0.004917507552435101</v>
+        <v>0.003950858608126758</v>
       </c>
       <c r="T18">
-        <v>0.0049175075524351</v>
+        <v>0.003950858608126758</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H19">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I19">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J19">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N19">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q19">
-        <v>1.193753316067111</v>
+        <v>1.839913511287667</v>
       </c>
       <c r="R19">
-        <v>10.743779844604</v>
+        <v>16.559221601589</v>
       </c>
       <c r="S19">
-        <v>0.0009649406125516863</v>
+        <v>0.001243709870330598</v>
       </c>
       <c r="T19">
-        <v>0.0009649406125516861</v>
+        <v>0.001243709870330599</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H20">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I20">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J20">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N20">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O20">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P20">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q20">
-        <v>0.4854424340059998</v>
+        <v>0.3206560646623333</v>
       </c>
       <c r="R20">
-        <v>4.368981906053999</v>
+        <v>2.885904581961</v>
       </c>
       <c r="S20">
-        <v>0.0003923952405607366</v>
+        <v>0.0002167510103900522</v>
       </c>
       <c r="T20">
-        <v>0.0003923952405607365</v>
+        <v>0.0002167510103900523</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H21">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I21">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J21">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N21">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O21">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P21">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q21">
-        <v>1.214585351496666</v>
+        <v>3.179193480428666</v>
       </c>
       <c r="R21">
-        <v>10.93126816347</v>
+        <v>28.612741323858</v>
       </c>
       <c r="S21">
-        <v>0.000981779666950563</v>
+        <v>0.002149010965484247</v>
       </c>
       <c r="T21">
-        <v>0.000981779666950563</v>
+        <v>0.002149010965484248</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H22">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I22">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J22">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N22">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O22">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P22">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q22">
-        <v>102.277279033344</v>
+        <v>96.52491273526111</v>
       </c>
       <c r="R22">
-        <v>920.4955113000959</v>
+        <v>868.7242146173501</v>
       </c>
       <c r="S22">
-        <v>0.08267327843385559</v>
+        <v>0.06524708143353294</v>
       </c>
       <c r="T22">
-        <v>0.08267327843385559</v>
+        <v>0.06524708143353296</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H23">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I23">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J23">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.067552</v>
       </c>
       <c r="O23">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P23">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q23">
-        <v>8.706400876543999</v>
+        <v>7.782156454737777</v>
       </c>
       <c r="R23">
-        <v>78.35760788889598</v>
+        <v>70.03940809263999</v>
       </c>
       <c r="S23">
-        <v>0.007037601221172736</v>
+        <v>0.005260434654040159</v>
       </c>
       <c r="T23">
-        <v>0.007037601221172736</v>
+        <v>0.005260434654040159</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H24">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I24">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J24">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N24">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O24">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P24">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q24">
-        <v>1.708418280064</v>
+        <v>2.449782630870556</v>
       </c>
       <c r="R24">
-        <v>15.375764520576</v>
+        <v>22.048043677835</v>
       </c>
       <c r="S24">
-        <v>0.001380957153769931</v>
+        <v>0.001655957641207738</v>
       </c>
       <c r="T24">
-        <v>0.001380957153769931</v>
+        <v>0.001655957641207738</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H25">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I25">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J25">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N25">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O25">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P25">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q25">
-        <v>0.6947320832639998</v>
+        <v>0.4269427083794444</v>
       </c>
       <c r="R25">
-        <v>6.252588749375999</v>
+        <v>3.842484375414999</v>
       </c>
       <c r="S25">
-        <v>0.0005615692898702578</v>
+        <v>0.0002885966417549578</v>
       </c>
       <c r="T25">
-        <v>0.0005615692898702578</v>
+        <v>0.0002885966417549578</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H26">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I26">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J26">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N26">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O26">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P26">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q26">
-        <v>1.73823166752</v>
+        <v>4.232988627318889</v>
       </c>
       <c r="R26">
-        <v>15.64408500768</v>
+        <v>38.09689764586999</v>
       </c>
       <c r="S26">
-        <v>0.00140505605926978</v>
+        <v>0.002861335440223615</v>
       </c>
       <c r="T26">
-        <v>0.00140505605926978</v>
+        <v>0.002861335440223615</v>
       </c>
     </row>
   </sheetData>
